--- a/Quesadilla Data.xlsx
+++ b/Quesadilla Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="450" windowWidth="22755" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="450" windowWidth="22755" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -1622,11 +1622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="BY6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="A2:B25"/>
+      <selection pane="bottomRight" activeCell="CB27" sqref="CB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36447,11 +36447,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
